--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H2">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I2">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J2">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>166.5244746353796</v>
+        <v>195.3206838191767</v>
       </c>
       <c r="R2">
-        <v>166.5244746353796</v>
+        <v>1757.88615437259</v>
       </c>
       <c r="S2">
-        <v>0.204973980249268</v>
+        <v>0.2039844524736799</v>
       </c>
       <c r="T2">
-        <v>0.204973980249268</v>
+        <v>0.2142819684208898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H3">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I3">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J3">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>58.7893190028124</v>
+        <v>66.08964219323336</v>
       </c>
       <c r="R3">
-        <v>58.7893190028124</v>
+        <v>594.8067797391001</v>
       </c>
       <c r="S3">
-        <v>0.07236342128408189</v>
+        <v>0.06902115645595812</v>
       </c>
       <c r="T3">
-        <v>0.07236342128408189</v>
+        <v>0.07250547327854438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H4">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I4">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J4">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>54.86484290283331</v>
+        <v>60.23709075875334</v>
       </c>
       <c r="R4">
-        <v>54.86484290283331</v>
+        <v>542.13381682878</v>
       </c>
       <c r="S4">
-        <v>0.06753280711540081</v>
+        <v>0.06290900552246212</v>
       </c>
       <c r="T4">
-        <v>0.06753280711540081</v>
+        <v>0.06608476955611685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H5">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I5">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J5">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>73.81865708909241</v>
+        <v>77.82773841048001</v>
       </c>
       <c r="R5">
-        <v>73.81865708909241</v>
+        <v>700.4496456943201</v>
       </c>
       <c r="S5">
-        <v>0.09086294368042654</v>
+        <v>0.08127991514520733</v>
       </c>
       <c r="T5">
-        <v>0.09086294368042654</v>
+        <v>0.08538307699036624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H6">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I6">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J6">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>39.90822978705031</v>
+        <v>42.88724040643751</v>
       </c>
       <c r="R6">
-        <v>39.90822978705031</v>
+        <v>257.323442438625</v>
       </c>
       <c r="S6">
-        <v>0.0491228014504491</v>
+        <v>0.04478957415750826</v>
       </c>
       <c r="T6">
-        <v>0.0491228014504491</v>
+        <v>0.03136709031437142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J7">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>159.0712313356204</v>
+        <v>206.8363941347367</v>
       </c>
       <c r="R7">
-        <v>159.0712313356204</v>
+        <v>1861.52754721263</v>
       </c>
       <c r="S7">
-        <v>0.1957998276313845</v>
+        <v>0.216010960970546</v>
       </c>
       <c r="T7">
-        <v>0.1957998276313845</v>
+        <v>0.2269155975170658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H8">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I8">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J8">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>56.15804754007674</v>
+        <v>69.98615309763335</v>
       </c>
       <c r="R8">
-        <v>56.15804754007674</v>
+        <v>629.8753778787001</v>
       </c>
       <c r="S8">
-        <v>0.06912460497186006</v>
+        <v>0.07309050347978682</v>
       </c>
       <c r="T8">
-        <v>0.06912460497186006</v>
+        <v>0.07678024853655685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H9">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I9">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J9">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>52.40922174772528</v>
+        <v>63.78854713227334</v>
       </c>
       <c r="R9">
-        <v>52.40922174772528</v>
+        <v>574.09692419046</v>
       </c>
       <c r="S9">
-        <v>0.06451019771669891</v>
+        <v>0.06661799255686811</v>
       </c>
       <c r="T9">
-        <v>0.06451019771669891</v>
+        <v>0.06998099317974141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H10">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I10">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J10">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>70.51470784949149</v>
+        <v>82.41630359736</v>
       </c>
       <c r="R10">
-        <v>70.51470784949149</v>
+        <v>741.7467323762401</v>
       </c>
       <c r="S10">
-        <v>0.08679613231431722</v>
+        <v>0.08607201365205071</v>
       </c>
       <c r="T10">
-        <v>0.08679613231431722</v>
+        <v>0.09041708957544647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H11">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I11">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J11">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N11">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O11">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P11">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q11">
-        <v>38.12203141040405</v>
+        <v>45.41578488568751</v>
       </c>
       <c r="R11">
-        <v>38.12203141040405</v>
+        <v>272.494709314125</v>
       </c>
       <c r="S11">
-        <v>0.04692418054756003</v>
+        <v>0.04743027636615225</v>
       </c>
       <c r="T11">
-        <v>0.04692418054756003</v>
+        <v>0.03321643017146875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.462885498239035</v>
+        <v>0.467454</v>
       </c>
       <c r="H12">
-        <v>0.462885498239035</v>
+        <v>0.9349080000000001</v>
       </c>
       <c r="I12">
-        <v>0.05198910303855286</v>
+        <v>0.04879414921978045</v>
       </c>
       <c r="J12">
-        <v>0.05198910303855286</v>
+        <v>0.03306726245943202</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N12">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O12">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P12">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q12">
-        <v>17.85573220823966</v>
+        <v>20.629511956196</v>
       </c>
       <c r="R12">
-        <v>17.85573220823966</v>
+        <v>123.777071737176</v>
       </c>
       <c r="S12">
-        <v>0.02197851402324943</v>
+        <v>0.02154456772780724</v>
       </c>
       <c r="T12">
-        <v>0.02197851402324943</v>
+        <v>0.01508811848323715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.462885498239035</v>
+        <v>0.467454</v>
       </c>
       <c r="H13">
-        <v>0.462885498239035</v>
+        <v>0.9349080000000001</v>
       </c>
       <c r="I13">
-        <v>0.05198910303855286</v>
+        <v>0.04879414921978045</v>
       </c>
       <c r="J13">
-        <v>0.05198910303855286</v>
+        <v>0.03306726245943202</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N13">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P13">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q13">
-        <v>6.303736067130455</v>
+        <v>6.980300484040002</v>
       </c>
       <c r="R13">
-        <v>6.303736067130455</v>
+        <v>41.88180290424</v>
       </c>
       <c r="S13">
-        <v>0.007759231037658398</v>
+        <v>0.007289923138180545</v>
       </c>
       <c r="T13">
-        <v>0.007759231037658398</v>
+        <v>0.005105288044400915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.462885498239035</v>
+        <v>0.467454</v>
       </c>
       <c r="H14">
-        <v>0.462885498239035</v>
+        <v>0.9349080000000001</v>
       </c>
       <c r="I14">
-        <v>0.05198910303855286</v>
+        <v>0.04879414921978045</v>
       </c>
       <c r="J14">
-        <v>0.05198910303855286</v>
+        <v>0.03306726245943202</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N14">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O14">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P14">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q14">
-        <v>5.882930690309434</v>
+        <v>6.362161752232001</v>
       </c>
       <c r="R14">
-        <v>5.882930690309434</v>
+        <v>38.172970513392</v>
       </c>
       <c r="S14">
-        <v>0.007241264215146819</v>
+        <v>0.006644365851081541</v>
       </c>
       <c r="T14">
-        <v>0.007241264215146819</v>
+        <v>0.004653190561707153</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.462885498239035</v>
+        <v>0.467454</v>
       </c>
       <c r="H15">
-        <v>0.462885498239035</v>
+        <v>0.9349080000000001</v>
       </c>
       <c r="I15">
-        <v>0.05198910303855286</v>
+        <v>0.04879414921978045</v>
       </c>
       <c r="J15">
-        <v>0.05198910303855286</v>
+        <v>0.03306726245943202</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N15">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O15">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P15">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q15">
-        <v>7.915269967617522</v>
+        <v>8.220062661407999</v>
       </c>
       <c r="R15">
-        <v>7.915269967617522</v>
+        <v>49.320375968448</v>
       </c>
       <c r="S15">
-        <v>0.009742858481088157</v>
+        <v>0.008584676996313205</v>
       </c>
       <c r="T15">
-        <v>0.009742858481088157</v>
+        <v>0.006012031677642624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.462885498239035</v>
+        <v>0.467454</v>
       </c>
       <c r="H16">
-        <v>0.462885498239035</v>
+        <v>0.9349080000000001</v>
       </c>
       <c r="I16">
-        <v>0.05198910303855286</v>
+        <v>0.04879414921978045</v>
       </c>
       <c r="J16">
-        <v>0.05198910303855286</v>
+        <v>0.03306726245943202</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N16">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O16">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P16">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q16">
-        <v>4.2791947882901</v>
+        <v>4.529693534925</v>
       </c>
       <c r="R16">
-        <v>4.2791947882901</v>
+        <v>18.1187741397</v>
       </c>
       <c r="S16">
-        <v>0.005267235281410057</v>
+        <v>0.004730615506397928</v>
       </c>
       <c r="T16">
-        <v>0.005267235281410057</v>
+        <v>0.002208633692444178</v>
       </c>
     </row>
   </sheetData>
